--- a/database/Pseudo_diccionario_datos.xlsx
+++ b/database/Pseudo_diccionario_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\universidad\7 semestre\Hypermedial\parcial 1\Proyecto\UPS-Proyecto-Hypermedial\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{A3EDFE1F-BEAA-4125-9365-5F1B172D9425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E0BF7-9319-4B91-B0C0-18402F159F8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108" xr2:uid="{D7340183-EE4E-4231-BBE2-578A9F42E400}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +510,7 @@
     <col min="3" max="3" width="27.109375" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
